--- a/Finflux Automation Excels/Client/2478-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-ADD-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Finflux Automation Excels/Client/2478-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-ADD-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -228,7 +228,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,11 +337,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -366,6 +379,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,18 +750,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>42064</v>
       </c>
     </row>
@@ -749,13 +781,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -779,80 +811,80 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>1620.38</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>8379.6200000000008</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>806.21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>520.79999999999995</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>92.26</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>428.54</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -865,750 +897,751 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="19" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="23" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="13.85546875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25">
         <v>42005</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="26">
         <v>5000</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24">
+        <v>0</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24">
+        <v>0</v>
+      </c>
+      <c r="L2" s="24">
+        <v>0</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="24">
         <v>31</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="25">
         <v>42036</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="25">
         <v>42036</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="6">
+      <c r="E3" s="27"/>
+      <c r="F3" s="24">
         <v>774.15</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="28">
         <v>4225.8500000000004</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="24">
         <v>50</v>
       </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="I3" s="24">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24">
         <v>824.15</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="24">
         <v>824.15</v>
       </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
+      <c r="M3" s="24">
+        <v>0</v>
+      </c>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="24">
         <v>14</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="25">
         <v>42050</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24">
         <v>867.36</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="28">
         <v>3358.49</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="24">
         <v>21.13</v>
       </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="I4" s="24">
+        <v>0</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24">
         <v>888.49</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="24">
         <v>867.36</v>
       </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="6">
+      <c r="M4" s="24">
+        <v>0</v>
+      </c>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24">
         <v>867.36</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="24">
         <v>867.36</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="24">
         <v>21.13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25">
         <v>42064</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="26">
         <v>5000</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24">
+        <v>0</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="24">
         <v>14</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="25">
         <v>42064</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24">
         <v>785.08</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="28">
         <v>7573.41</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="24">
         <v>21.13</v>
       </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
         <v>806.21</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="24">
         <v>21.13</v>
       </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
+      <c r="M6" s="24">
+        <v>0</v>
+      </c>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+      <c r="P6" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="24">
         <v>785.08</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="24">
         <v>31</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="25">
         <v>42095</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24">
         <v>722.41</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="26">
         <v>6851</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="24">
         <v>83.8</v>
       </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24">
         <v>806.21</v>
       </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="L7" s="24">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="P7" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
         <v>806.21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="24">
         <v>30</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="25">
         <v>42125</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24">
         <v>737.7</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="28">
         <v>6113.3</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="24">
         <v>68.510000000000005</v>
       </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0</v>
+      </c>
+      <c r="K8" s="24">
         <v>806.21</v>
       </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
+      <c r="L8" s="24">
+        <v>0</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
         <v>806.21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="24">
         <v>31</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="25">
         <v>42156</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
         <v>745.08</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="28">
         <v>5368.22</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="24">
         <v>61.13</v>
       </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="I9" s="24">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0</v>
+      </c>
+      <c r="K9" s="24">
         <v>806.21</v>
       </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="L9" s="24">
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="P9" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24">
         <v>806.21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="24">
         <v>30</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="25">
         <v>42186</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24">
         <v>752.53</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="28">
         <v>4615.6899999999996</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="24">
         <v>53.68</v>
       </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="I10" s="24">
+        <v>0</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
         <v>806.21</v>
       </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
+      <c r="L10" s="24">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
         <v>806.21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="24">
         <v>31</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="25">
         <v>42217</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24">
         <v>760.05</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="28">
         <v>3855.64</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="24">
         <v>46.16</v>
       </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
         <v>806.21</v>
       </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
         <v>806.21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="24">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="24">
         <v>31</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="25">
         <v>42248</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24">
         <v>767.65</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="28">
         <v>3087.99</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="24">
         <v>38.56</v>
       </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I12" s="24">
+        <v>0</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0</v>
+      </c>
+      <c r="K12" s="24">
         <v>806.21</v>
       </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24">
+        <v>0</v>
+      </c>
+      <c r="P12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="24">
         <v>806.21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="24">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="24">
         <v>30</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="25">
         <v>42278</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24">
         <v>775.33</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="28">
         <v>2312.66</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="24">
         <v>30.88</v>
       </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="I13" s="24">
+        <v>0</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0</v>
+      </c>
+      <c r="K13" s="24">
         <v>806.21</v>
       </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
+      <c r="L13" s="24">
+        <v>0</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24">
+        <v>0</v>
+      </c>
+      <c r="P13" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="24">
         <v>806.21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="24">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="24">
         <v>31</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="25">
         <v>42309</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
         <v>783.08</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="28">
         <v>1529.58</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="24">
         <v>23.13</v>
       </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="I14" s="24">
+        <v>0</v>
+      </c>
+      <c r="J14" s="24">
+        <v>0</v>
+      </c>
+      <c r="K14" s="24">
         <v>806.21</v>
       </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
+      <c r="L14" s="24">
+        <v>0</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0</v>
+      </c>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24">
+        <v>0</v>
+      </c>
+      <c r="P14" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="24">
         <v>806.21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="24">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="24">
         <v>30</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="25">
         <v>42339</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24">
         <v>790.91</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="24">
         <v>738.67</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="24">
         <v>15.3</v>
       </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="I15" s="24">
+        <v>0</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0</v>
+      </c>
+      <c r="K15" s="24">
         <v>806.21</v>
       </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
+      <c r="L15" s="24">
+        <v>0</v>
+      </c>
+      <c r="M15" s="24">
+        <v>0</v>
+      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24">
+        <v>0</v>
+      </c>
+      <c r="P15" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="24">
         <v>806.21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="24">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="24">
         <v>31</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="25">
         <v>42370</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24">
         <v>738.67</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
         <v>7.39</v>
       </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="I16" s="24">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
         <v>746.06</v>
       </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
+      <c r="L16" s="24">
+        <v>0</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24">
+        <v>0</v>
+      </c>
+      <c r="P16" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="24">
         <v>746.06</v>
       </c>
     </row>
@@ -1628,17 +1661,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1674,272 +1707,272 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>129</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>42095</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>83.8</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>83.8</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>128</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>42064</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>888.49</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>846.23</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>42.26</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
         <v>8379.6200000000008</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>126</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>42064</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>21.13</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <v>21.13</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>123</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>42064</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>5000</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
         <v>9225.85</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>125</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>42050</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>21.13</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>21.13</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>124</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>42036</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>50</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>50</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>122</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>42036</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>824.15</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>774.15</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>50</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
         <v>4225.8500000000004</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>121</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>42005</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>5000</v>
       </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>5000</v>
       </c>
       <c r="K9"/>
@@ -2000,56 +2033,56 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>151</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>42005</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>154</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>42005</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2108,85 +2141,85 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>241</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>42036</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>242</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>42036</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>243</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>42036</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2244,56 +2277,56 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>42064</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>35</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>42064</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2312,16 +2345,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2354,85 +2387,85 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>100</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>42064</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>101</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>42064</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>102</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>42064</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2443,277 +2476,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="7.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>246</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>42036</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>247</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>42036</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+    <row r="4" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>248</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>42050</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>249</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>42050</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H7" s="21"/>
-      <c r="I7" s="19"/>
+    <row r="7" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>250</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>42064</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>251</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>42064</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="19"/>
-      <c r="I10" s="21"/>
+    <row r="10" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>259</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>42095</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>260</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>42095</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17" t="s">
         <v>64</v>
       </c>
     </row>
